--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3174.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3174.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.193592975424562</v>
+        <v>1.036415338516235</v>
       </c>
       <c r="B1">
-        <v>1.514973040914405</v>
+        <v>2.271584510803223</v>
       </c>
       <c r="C1">
-        <v>2.206752683828187</v>
+        <v>4.465034484863281</v>
       </c>
       <c r="D1">
-        <v>7.118013818408973</v>
+        <v>1.10789954662323</v>
       </c>
       <c r="E1">
-        <v>4.102887281304865</v>
+        <v>1.251142144203186</v>
       </c>
     </row>
   </sheetData>
